--- a/hello_time_20220212.xlsx
+++ b/hello_time_20220212.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRIVATE\TIMEMANAGEMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC7032C-BE57-45F3-AB6A-2AA7BA222BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B56857C-9843-4CC6-8CC3-73D421A5F466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5736F442-E065-4129-A605-41BE8B99DB5B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="230">
   <si>
     <t>DATE</t>
   </si>
@@ -10793,9 +10793,9 @@
   <dimension ref="A1:P145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15456,21 +15456,28 @@
         <v>43</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="I104" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -15499,21 +15506,28 @@
         <v>25</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="I105" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -15542,21 +15556,28 @@
         <v>21</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="I106" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -15585,21 +15606,28 @@
         <v>22</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="I107" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -15628,21 +15656,28 @@
         <v>23</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="I108" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -15671,21 +15706,28 @@
         <v>24</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="I109" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -15757,25 +15799,21 @@
         <v>25</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
       <c r="I111" s="1" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -15804,25 +15842,21 @@
         <v>21</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
       <c r="I112" s="1" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -15851,25 +15885,21 @@
         <v>22</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
       <c r="I113" s="1" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -15898,25 +15928,21 @@
         <v>23</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
       <c r="I114" s="1" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -15945,25 +15971,21 @@
         <v>24</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
       <c r="I115" s="1" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -15992,25 +16014,21 @@
         <v>43</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
       <c r="I116" s="1" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -16039,25 +16057,21 @@
         <v>25</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
       <c r="I117" s="1" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -16086,25 +16100,21 @@
         <v>21</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
       <c r="I118" s="1" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -16133,25 +16143,21 @@
         <v>22</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
       <c r="I119" s="1" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>127</v>
+        <v>223</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -16180,25 +16186,21 @@
         <v>23</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
       <c r="I120" s="1" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>127</v>
+        <v>223</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -16232,16 +16234,16 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1" t="s">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -16275,16 +16277,16 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -16318,16 +16320,16 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -16361,16 +16363,16 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -16404,16 +16406,16 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -16447,16 +16449,16 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -17044,21 +17046,21 @@
         <v>43</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="N140">
         <v>1</v>
@@ -17087,21 +17089,21 @@
         <v>25</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="N141">
         <v>1</v>
@@ -17130,21 +17132,21 @@
         <v>21</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="N142">
         <v>1</v>
@@ -17173,21 +17175,21 @@
         <v>22</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="N143">
         <v>1</v>
@@ -17216,21 +17218,21 @@
         <v>23</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="N144">
         <v>1</v>
@@ -17259,21 +17261,21 @@
         <v>24</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="N145">
         <v>1</v>
